--- a/biology/Zoologie/Élénie_montagnarde/Élénie_montagnarde.xlsx
+++ b/biology/Zoologie/Élénie_montagnarde/Élénie_montagnarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_montagnarde</t>
+          <t>Élénie_montagnarde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaenia frantzii
-L'Élénie montagnarde (Elaenia frantzii), aussi appelée Élaène montagnarde, est une espèce de passereau de la famille des Tyrannidae[1].
+L'Élénie montagnarde (Elaenia frantzii), aussi appelée Élaène montagnarde, est une espèce de passereau de la famille des Tyrannidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_montagnarde</t>
+          <t>Élénie_montagnarde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cet oiseau est représenté par quatre sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cet oiseau est représenté par quatre sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019) :
 Elaenia frantzii frantzii Lawrence, 1865 : montagnes du Costa Rica et de l'ouest du Panama (provinces de Chiriquí et de Veraguas) ;
 Elaenia frantzii ultima Griscom, 1935 : montagnes du Guatemala, du Salvador, du Honduras et du Nicaragua ;
 Elaenia frantzii pudica Sclater, 1871 : Andes de Colombie et montagnes des côtes du nord du Venezuela ;
-Elaenia frantzii browni Bangs, 1898 : nord de la Colombie (sierra Nevada de Santa Marta et serranía de Perijá)[1],[3].</t>
+Elaenia frantzii browni Bangs, 1898 : nord de la Colombie (sierra Nevada de Santa Marta et serranía de Perijá),.</t>
         </is>
       </c>
     </row>
